--- a/biology/Botanique/Tetracentraceae/Tetracentraceae.xlsx
+++ b/biology/Botanique/Tetracentraceae/Tetracentraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Tetracentraceae (Tetracentracées) est une famille de plantes qui ne comprend qu’une espèce: Tetracentron sinense.
 C’est un arbre à feuilles entières, simples, stipulées, caduques, originaire des régions subtropicales et tropicales d’Asie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Tetracentron, composé de tetra, quatre, et centron, centre, en raison du nombre des différentes parties de la fleur : ovaire constituée de  4 carpelles, 4 étamines exsertes opposées aux 4 sépales[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Tetracentron, composé de tetra, quatre, et centron, centre, en raison du nombre des différentes parties de la fleur : ovaire constituée de  4 carpelles, 4 étamines exsertes opposées aux 4 sépales. 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour la classification phylogénétique APG (1998)[2] et classification phylogénétique APG II (2003)[3] cette famille est optionnelle et cette plante peut aussi être incluse dans la famille Trochodendraceae
-En classification phylogénétique APG III (2009)[4] cette famille est invalide ; ce genre est incorporé dans la famille Trochodendraceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la classification phylogénétique APG (1998) et classification phylogénétique APG II (2003) cette famille est optionnelle et cette plante peut aussi être incluse dans la famille Trochodendraceae
+En classification phylogénétique APG III (2009) cette famille est invalide ; ce genre est incorporé dans la famille Trochodendraceae.
 </t>
         </is>
       </c>
